--- a/data/case1/20/cost_5.xlsx
+++ b/data/case1/20/cost_5.xlsx
@@ -63,13 +63,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>157.05409698627483</v>
+        <v>157.0593950080042</v>
       </c>
       <c r="B1" s="0">
-        <v>5.2807003127539609</v>
+        <v>5.5492176629691743</v>
       </c>
       <c r="C1" s="0">
-        <v>1.1677103718199608</v>
+        <v>0.69070450097847358</v>
       </c>
     </row>
   </sheetData>
